--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:08:22+00:00</t>
+    <t>2023-10-02T16:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:24:37+00:00</t>
+    <t>2023-10-02T16:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:25:05+00:00</t>
+    <t>2023-10-05T15:57:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:57:13+00:00</t>
+    <t>2023-10-10T15:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T15:16:16+00:00</t>
+    <t>2023-10-10T16:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
